--- a/StructureDefinition-variable-summary.xlsx
+++ b/StructureDefinition-variable-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T17:59:04+00:00</t>
+    <t>2022-04-08T17:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-variable-summary.xlsx
+++ b/StructureDefinition-variable-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T17:59:36+00:00</t>
+    <t>2022-04-08T19:04:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-variable-summary.xlsx
+++ b/StructureDefinition-variable-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T19:04:52+00:00</t>
+    <t>2022-04-08T19:05:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-variable-summary.xlsx
+++ b/StructureDefinition-variable-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T19:05:18+00:00</t>
+    <t>2022-04-11T21:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -769,7 +769,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group)
+    <t xml:space="preserve">Reference(https://ncpi-fhir.github.io/ncpi-fhir-study-summary-ig/StructureDefinition/study-summary-group)
 </t>
   </si>
   <si>

--- a/StructureDefinition-variable-summary.xlsx
+++ b/StructureDefinition-variable-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T21:19:38+00:00</t>
+    <t>2022-04-11T21:19:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-variable-summary.xlsx
+++ b/StructureDefinition-variable-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T21:19:53+00:00</t>
+    <t>2022-04-11T21:41:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-variable-summary.xlsx
+++ b/StructureDefinition-variable-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T21:41:41+00:00</t>
+    <t>2022-04-11T21:49:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-variable-summary.xlsx
+++ b/StructureDefinition-variable-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T21:49:34+00:00</t>
+    <t>2022-04-22T15:57:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-variable-summary.xlsx
+++ b/StructureDefinition-variable-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:57:10+00:00</t>
+    <t>2022-04-22T15:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-variable-summary.xlsx
+++ b/StructureDefinition-variable-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:57:32+00:00</t>
+    <t>2022-04-26T17:19:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-variable-summary.xlsx
+++ b/StructureDefinition-variable-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:19:32+00:00</t>
+    <t>2022-04-26T17:20:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-variable-summary.xlsx
+++ b/StructureDefinition-variable-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:20:41+00:00</t>
+    <t>2022-04-26T22:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -769,7 +769,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://ncpi-fhir.github.io/ncpi-fhir-study-summary-ig/StructureDefinition/study-summary-group)
+    <t xml:space="preserve">Reference(https://ncpi-fhir.github.io/ncpi-fhir-study-summary-ig/StructureDefinition/ncpi-group)
 </t>
   </si>
   <si>

--- a/StructureDefinition-variable-summary.xlsx
+++ b/StructureDefinition-variable-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T22:45:35+00:00</t>
+    <t>2022-04-26T22:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
